--- a/rep.xlsx
+++ b/rep.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21180" windowHeight="11100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21180" windowHeight="11100" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="2.1" sheetId="2" r:id="rId2"/>
+    <sheet name="2.2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>yi,N</t>
     <phoneticPr fontId="1"/>
@@ -33,11 +35,32 @@
     <t>xi,mm</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>div</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     trape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     simps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      true</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rerr(tra)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rerr(sim)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="179" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -92,11 +115,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -381,7 +410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -461,4 +490,217 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1.0036959999999999</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.36960399999999999</v>
+      </c>
+      <c r="F2" s="3">
+        <v>2.6999999999999999E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>30</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1.0004109999999999</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>4.1078000000000003E-2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>50</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1.000148</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1.4788000000000001E-2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1.0981860000000001</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1.0986119999999999</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1.0986119999999999</v>
+      </c>
+      <c r="E2" s="3">
+        <v>-3.8834E-2</v>
+      </c>
+      <c r="F2" s="3">
+        <v>-9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>30</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1.098565</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1.0986119999999999</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1.0986119999999999</v>
+      </c>
+      <c r="E3" s="3">
+        <v>-4.3150000000000003E-3</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>50</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1.098595</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1.0986119999999999</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1.0986119999999999</v>
+      </c>
+      <c r="E4" s="3">
+        <v>-1.5529999999999999E-3</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>